--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Properties</t>
   </si>
@@ -53,9 +53,6 @@
     <t>BaseURL</t>
   </si>
   <si>
-    <t>https://vam-bd-agentuw-qa-wapp.azurewebsites.net</t>
-  </si>
-  <si>
     <t>TestCaseNumber</t>
   </si>
   <si>
@@ -71,25 +68,16 @@
     <t>Smoke</t>
   </si>
   <si>
-    <t>Regression,Sanity</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Sanity,Regression</t>
-  </si>
-  <si>
-    <t>Sanity,Smoke</t>
-  </si>
-  <si>
-    <t>Sanity</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>TestCaseNumber=104</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TestCaseNumber=101</t>
+  </si>
+  <si>
+    <t>http://kliappsvr:99/</t>
   </si>
 </sst>
 </file>
@@ -187,9 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -535,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,140 +596,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>102</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>103</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>106</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>107</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>108</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>109</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>110</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>111</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{394E242C-43A5-4FF5-8B92-BE356AEAD4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Properties</t>
   </si>
@@ -47,12 +48,21 @@
     <t>RunInParallel</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>NumberOfBrowsers</t>
   </si>
   <si>
     <t>BaseURL</t>
   </si>
   <si>
+    <t>https://uateinsurance.mykotaklife.com/einsurance</t>
+  </si>
+  <si>
+    <t>http://kliappsvr:99/</t>
+  </si>
+  <si>
     <t>TestCaseNumber</t>
   </si>
   <si>
@@ -65,29 +75,32 @@
     <t>Execute</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Smoke</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TestCaseNumber=101</t>
-  </si>
-  <si>
-    <t>http://kliappsvr:99/</t>
-  </si>
-  <si>
-    <t>https://uateinsurance.mykotaklife.com/einsurance</t>
+    <t>TestCaseNumber=102</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +225,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -524,20 +537,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -553,45 +566,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" tooltip="https://uateinsurance.mykotaklife.com/einsurance"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="https://uateinsurance.mykotaklife.com/einsurance"/>
+    <hyperlink ref="B7" r:id="rId1" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -599,46 +612,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{394E242C-43A5-4FF5-8B92-BE356AEAD4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA9B8AD-A9CA-47B9-BE1F-B525148DF62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>Smoke</t>
   </si>
   <si>
-    <t>TestCaseNumber=102</t>
+    <t>TestCaseNumber=101</t>
   </si>
   <si>
     <t>102</t>
@@ -616,7 +616,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22604"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA9B8AD-A9CA-47B9-BE1F-B525148DF62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{ADA9B8AD-A9CA-47B9-BE1F-B525148DF62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F70E611-A683-4F98-936E-0AC83E3B5DCB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -54,13 +54,13 @@
     <t>NumberOfBrowsers</t>
   </si>
   <si>
+    <t>http://kliappsvr:99/</t>
+  </si>
+  <si>
     <t>BaseURL</t>
   </si>
   <si>
     <t>https://uateinsurance.mykotaklife.com/einsurance</t>
-  </si>
-  <si>
-    <t>http://kliappsvr:99/</t>
   </si>
   <si>
     <t>TestCaseNumber</t>
@@ -538,19 +538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -566,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -574,36 +575,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="7" t="s">
-        <v>8</v>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId1" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B5" r:id="rId3" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{ADA9B8AD-A9CA-47B9-BE1F-B525148DF62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F70E611-A683-4F98-936E-0AC83E3B5DCB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6852AC3B-1353-45EB-AED7-1A491CEF4475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>Properties</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Smoke</t>
   </si>
   <si>
-    <t>TestCaseNumber=101</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
@@ -94,13 +91,169 @@
   </si>
   <si>
     <t>105</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>1915</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>TestCaseNumber=1911</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +269,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,12 +332,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -194,6 +364,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,18 +719,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -567,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -575,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -586,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -610,20 +789,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -637,8 +816,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -648,12 +827,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -662,9 +841,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -673,9 +852,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -684,9 +863,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -695,7 +874,327 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1898</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1899</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1900</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1911</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6852AC3B-1353-45EB-AED7-1A491CEF4475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D756DB-44FE-4FCE-8309-7CDB9B088074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Properties</t>
   </si>
@@ -81,6 +81,9 @@
     <t>Smoke</t>
   </si>
   <si>
+    <t>TestCaseNumber=107</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
@@ -93,167 +96,167 @@
     <t>105</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>1912</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>1913</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
     <t>1914</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>1915</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>1916</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>1917</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>1918</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>1919</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>1920</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>1921</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>1922</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>1923</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>1924</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>1925</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>1926</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>TestCaseNumber=1911</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,14 +726,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -746,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -754,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -789,20 +792,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -816,7 +819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="9">
         <v>101</v>
       </c>
@@ -827,12 +830,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -841,9 +844,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -852,9 +855,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -863,9 +866,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -874,9 +877,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>1898</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -885,9 +888,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1899</v>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10">
+        <v>1898</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -896,9 +899,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="5">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -907,20 +910,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>35</v>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>1900</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -929,267 +932,278 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8">
+        <v>1911</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>1911</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
         <v>15</v>
       </c>
     </row>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D756DB-44FE-4FCE-8309-7CDB9B088074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B21F40-78B0-4EB1-88BD-9308C3B32B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
   <si>
     <t>Properties</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Smoke</t>
   </si>
   <si>
-    <t>TestCaseNumber=107</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
@@ -250,13 +247,316 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>http://kliappsitsvr/OnlineTermInsuranceNRI/</t>
+  </si>
+  <si>
+    <t>Nri</t>
+  </si>
+  <si>
+    <t>Groups=Smoke,Regression,Nri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,17 +1023,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -749,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -757,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -768,12 +1068,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
+      <c r="B5" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
@@ -783,7 +1083,7 @@
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{6720A39D-390C-4283-B2A7-C4B04C8B18C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -792,20 +1092,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -819,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>101</v>
       </c>
@@ -827,68 +1127,68 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1898</v>
       </c>
@@ -899,312 +1199,829 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1899</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1900</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1911</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="B35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B21F40-78B0-4EB1-88BD-9308C3B32B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AFA596-80BF-4733-9D9A-3179F50DD83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
   <si>
     <t>Properties</t>
   </si>
@@ -537,19 +537,205 @@
     <t>76</t>
   </si>
   <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>HHH</t>
-  </si>
-  <si>
     <t>http://kliappsitsvr/OnlineTermInsuranceNRI/</t>
   </si>
   <si>
-    <t>Nri</t>
-  </si>
-  <si>
-    <t>Groups=Smoke,Regression,Nri</t>
+    <t>TestCaseNumber=1974</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
@@ -1092,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,11 +1312,8 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,9 +1323,6 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1151,9 +1331,6 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1162,9 +1339,6 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1173,9 +1347,6 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1184,9 +1355,6 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1228,9 +1396,6 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1239,9 +1404,6 @@
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1250,9 +1412,6 @@
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1261,9 +1420,6 @@
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1272,9 +1428,6 @@
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1283,745 +1436,821 @@
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1911</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C64" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C66" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C68" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C69" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C70" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C73" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C77" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C79" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C81" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C83" t="s">
-        <v>168</v>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AFA596-80BF-4733-9D9A-3179F50DD83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214D4881-24C8-46E1-9BAB-4E35E6CAA3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="238">
   <si>
     <t>Properties</t>
   </si>
@@ -540,9 +540,6 @@
     <t>http://kliappsitsvr/OnlineTermInsuranceNRI/</t>
   </si>
   <si>
-    <t>TestCaseNumber=1974</t>
-  </si>
-  <si>
     <t>1974</t>
   </si>
   <si>
@@ -736,6 +733,18 @@
   </si>
   <si>
     <t>111</t>
+  </si>
+  <si>
+    <t>Nri</t>
+  </si>
+  <si>
+    <t>kjh</t>
+  </si>
+  <si>
+    <t>Ec</t>
+  </si>
+  <si>
+    <t>Groups=Smoke,Nri,Ec</t>
   </si>
 </sst>
 </file>
@@ -1280,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,8 +1321,11 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>169</v>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,6 +1335,9 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1331,6 +1346,9 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1339,6 +1357,9 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1347,6 +1368,9 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1355,6 +1379,9 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1396,6 +1423,9 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1404,6 +1434,9 @@
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1412,6 +1445,9 @@
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1420,6 +1456,9 @@
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1428,6 +1467,9 @@
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1436,821 +1478,1130 @@
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1911</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="B85" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="B86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="C87" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="C88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="C89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="C90" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="C91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="C92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="C93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="C94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="C95" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+      <c r="C96" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="C97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="C98" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="C99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="C100" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="C101" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="C102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="C103" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="C106" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="C107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="C108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="C116" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="C117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>234</v>
+      <c r="C118" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagasrinivast\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214D4881-24C8-46E1-9BAB-4E35E6CAA3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71A30C8-258D-422F-9068-D7C353249FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="356">
   <si>
     <t>Properties</t>
   </si>
@@ -744,7 +744,361 @@
     <t>Ec</t>
   </si>
   <si>
-    <t>Groups=Smoke,Nri,Ec</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Not a tobacco user, pg qualified and covered under kotak group insurance</t>
+  </si>
+  <si>
+    <t>TestDescription_1</t>
+  </si>
+  <si>
+    <t>TestDescription_2</t>
+  </si>
+  <si>
+    <t>TestDescription_10</t>
+  </si>
+  <si>
+    <t>TestDescription_11</t>
+  </si>
+  <si>
+    <t>TestDescription_12</t>
+  </si>
+  <si>
+    <t>TestDescription_13</t>
+  </si>
+  <si>
+    <t>TestDescription_3</t>
+  </si>
+  <si>
+    <t>TestDescription_4</t>
+  </si>
+  <si>
+    <t>TestDescription_5</t>
+  </si>
+  <si>
+    <t>TestDescription_6</t>
+  </si>
+  <si>
+    <t>TestDescription_7</t>
+  </si>
+  <si>
+    <t>TestDescription_8</t>
+  </si>
+  <si>
+    <t>TestDescription_9</t>
+  </si>
+  <si>
+    <t>TestDescription_14</t>
+  </si>
+  <si>
+    <t>TestDescription_15</t>
+  </si>
+  <si>
+    <t>TestDescription_16</t>
+  </si>
+  <si>
+    <t>TestDescription_17</t>
+  </si>
+  <si>
+    <t>TestDescription_18</t>
+  </si>
+  <si>
+    <t>TestDescription_19</t>
+  </si>
+  <si>
+    <t>TestDescription_20</t>
+  </si>
+  <si>
+    <t>TestDescription_21</t>
+  </si>
+  <si>
+    <t>TestDescription_22</t>
+  </si>
+  <si>
+    <t>TestDescription_23</t>
+  </si>
+  <si>
+    <t>TestDescription_24</t>
+  </si>
+  <si>
+    <t>TestDescription_25</t>
+  </si>
+  <si>
+    <t>TestDescription_26</t>
+  </si>
+  <si>
+    <t>TestDescription_27</t>
+  </si>
+  <si>
+    <t>TestDescription_28</t>
+  </si>
+  <si>
+    <t>TestDescription_29</t>
+  </si>
+  <si>
+    <t>TestDescription_30</t>
+  </si>
+  <si>
+    <t>TestDescription_31</t>
+  </si>
+  <si>
+    <t>TestDescription_32</t>
+  </si>
+  <si>
+    <t>TestDescription_33</t>
+  </si>
+  <si>
+    <t>TestDescription_34</t>
+  </si>
+  <si>
+    <t>TestDescription_35</t>
+  </si>
+  <si>
+    <t>TestDescription_36</t>
+  </si>
+  <si>
+    <t>TestDescription_37</t>
+  </si>
+  <si>
+    <t>TestDescription_38</t>
+  </si>
+  <si>
+    <t>TestDescription_39</t>
+  </si>
+  <si>
+    <t>TestDescription_40</t>
+  </si>
+  <si>
+    <t>TestDescription_41</t>
+  </si>
+  <si>
+    <t>TestDescription_42</t>
+  </si>
+  <si>
+    <t>TestDescription_43</t>
+  </si>
+  <si>
+    <t>TestDescription_44</t>
+  </si>
+  <si>
+    <t>TestDescription_45</t>
+  </si>
+  <si>
+    <t>TestDescription_46</t>
+  </si>
+  <si>
+    <t>TestDescription_47</t>
+  </si>
+  <si>
+    <t>TestDescription_48</t>
+  </si>
+  <si>
+    <t>TestDescription_49</t>
+  </si>
+  <si>
+    <t>TestDescription_50</t>
+  </si>
+  <si>
+    <t>TestDescription_51</t>
+  </si>
+  <si>
+    <t>TestDescription_52</t>
+  </si>
+  <si>
+    <t>TestDescription_53</t>
+  </si>
+  <si>
+    <t>TestDescription_54</t>
+  </si>
+  <si>
+    <t>TestDescription_55</t>
+  </si>
+  <si>
+    <t>TestDescription_56</t>
+  </si>
+  <si>
+    <t>TestDescription_57</t>
+  </si>
+  <si>
+    <t>TestDescription_58</t>
+  </si>
+  <si>
+    <t>TestDescription_59</t>
+  </si>
+  <si>
+    <t>TestDescription_60</t>
+  </si>
+  <si>
+    <t>TestDescription_61</t>
+  </si>
+  <si>
+    <t>TestDescription_62</t>
+  </si>
+  <si>
+    <t>TestDescription_63</t>
+  </si>
+  <si>
+    <t>TestDescription_64</t>
+  </si>
+  <si>
+    <t>TestDescription_65</t>
+  </si>
+  <si>
+    <t>TestDescription_66</t>
+  </si>
+  <si>
+    <t>TestDescription_67</t>
+  </si>
+  <si>
+    <t>TestDescription_68</t>
+  </si>
+  <si>
+    <t>TestDescription_69</t>
+  </si>
+  <si>
+    <t>TestDescription_70</t>
+  </si>
+  <si>
+    <t>TestDescription_71</t>
+  </si>
+  <si>
+    <t>TestDescription_72</t>
+  </si>
+  <si>
+    <t>TestDescription_73</t>
+  </si>
+  <si>
+    <t>TestDescription_74</t>
+  </si>
+  <si>
+    <t>TestDescription_75</t>
+  </si>
+  <si>
+    <t>TestDescription_76</t>
+  </si>
+  <si>
+    <t>TestDescription_77</t>
+  </si>
+  <si>
+    <t>TestDescription_78</t>
+  </si>
+  <si>
+    <t>TestDescription_79</t>
+  </si>
+  <si>
+    <t>TestDescription_80</t>
+  </si>
+  <si>
+    <t>TestDescription_81</t>
+  </si>
+  <si>
+    <t>TestDescription_82</t>
+  </si>
+  <si>
+    <t>TestDescription_83</t>
+  </si>
+  <si>
+    <t>TestDescription_84</t>
+  </si>
+  <si>
+    <t>TestDescription_85</t>
+  </si>
+  <si>
+    <t>TestDescription_86</t>
+  </si>
+  <si>
+    <t>TestDescription_87</t>
+  </si>
+  <si>
+    <t>TestDescription_88</t>
+  </si>
+  <si>
+    <t>TestDescription_89</t>
+  </si>
+  <si>
+    <t>TestDescription_90</t>
+  </si>
+  <si>
+    <t>TestDescription_91</t>
+  </si>
+  <si>
+    <t>TestDescription_92</t>
+  </si>
+  <si>
+    <t>TestDescription_93</t>
+  </si>
+  <si>
+    <t>TestDescription_94</t>
+  </si>
+  <si>
+    <t>TestDescription_95</t>
+  </si>
+  <si>
+    <t>TestDescription_96</t>
+  </si>
+  <si>
+    <t>TestDescription_97</t>
+  </si>
+  <si>
+    <t>TestDescription_98</t>
+  </si>
+  <si>
+    <t>TestDescription_99</t>
+  </si>
+  <si>
+    <t>TestDescription_100</t>
+  </si>
+  <si>
+    <t>TestDescription_101</t>
+  </si>
+  <si>
+    <t>TestDescription_102</t>
+  </si>
+  <si>
+    <t>TestDescription_103</t>
+  </si>
+  <si>
+    <t>TestDescription_104</t>
+  </si>
+  <si>
+    <t>TestDescription_105</t>
+  </si>
+  <si>
+    <t>TestDescription_106</t>
+  </si>
+  <si>
+    <t>TestDescription_107</t>
+  </si>
+  <si>
+    <t>TestDescription_108</t>
+  </si>
+  <si>
+    <t>TestDescription_109</t>
+  </si>
+  <si>
+    <t>TestDescription_110</t>
+  </si>
+  <si>
+    <t>TestDescription_111</t>
+  </si>
+  <si>
+    <t>TestDescription_112</t>
+  </si>
+  <si>
+    <t>TestDescription_113</t>
+  </si>
+  <si>
+    <t>TestDescription_114</t>
+  </si>
+  <si>
+    <t>TestDescription_115</t>
+  </si>
+  <si>
+    <t>TestDescription_116</t>
+  </si>
+  <si>
+    <t>Groups=kjh,Smoke,Nri,Ec</t>
   </si>
 </sst>
 </file>
@@ -1287,1320 +1641,1674 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="1" max="3" width="21.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>235</v>
       </c>
-      <c r="D2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1898</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1899</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1900</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1911</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C84" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C85" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C102" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C103" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C104" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C105" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C106" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C107" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C108" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C109" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C110" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C111" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C112" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C113" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C114" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C115" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C116" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C117" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>236</v>
       </c>
     </row>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagasrinivast\git\VMSeleniumFramework\resources\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71A30C8-258D-422F-9068-D7C353249FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A71E1C-B6AC-4BE1-B45E-DC525C75F005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="362">
   <si>
     <t>Properties</t>
   </si>
@@ -1098,7 +1098,25 @@
     <t>TestDescription_116</t>
   </si>
   <si>
-    <t>Groups=kjh,Smoke,Nri,Ec</t>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>TestDescription_117</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>TPI</t>
+  </si>
+  <si>
+    <t>https://uateinsurance.mykotaklife.com/einsurance/Aggregator.html</t>
+  </si>
+  <si>
+    <t>http://kliappsitsvr/OnlineTermInsurance/</t>
+  </si>
+  <si>
+    <t>TestCaseNumber=1936</t>
   </si>
 </sst>
 </file>
@@ -1569,17 +1587,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,37 +1639,55 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>168</v>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{6720A39D-390C-4283-B2A7-C4B04C8B18C8}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{22324165-6189-4DFD-A84C-654307E2A730}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{8833356A-A9AA-4295-81FA-CD936ACCC769}"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{31B31E5C-5764-4F45-B024-433B9BA006F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1684,8 +1720,8 @@
       <c r="D2" t="s">
         <v>235</v>
       </c>
-      <c r="E2" t="s">
-        <v>355</v>
+      <c r="E2" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1701,6 +1737,7 @@
       <c r="D3" t="s">
         <v>235</v>
       </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3310,6 +3347,20 @@
       </c>
       <c r="D118" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D119" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A71E1C-B6AC-4BE1-B45E-DC525C75F005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2694B1FD-FC30-4B86-A2DE-DEF753E934B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="433">
   <si>
     <t>Properties</t>
   </si>
@@ -1116,7 +1116,220 @@
     <t>http://kliappsitsvr/OnlineTermInsurance/</t>
   </si>
   <si>
-    <t>TestCaseNumber=1936</t>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>PageWisevalidations</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>PWV</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>TestDescription_118</t>
+  </si>
+  <si>
+    <t>TestDescription_119</t>
+  </si>
+  <si>
+    <t>TestDescription_120</t>
+  </si>
+  <si>
+    <t>TestDescription_121</t>
+  </si>
+  <si>
+    <t>TestDescription_122</t>
+  </si>
+  <si>
+    <t>TestDescription_123</t>
+  </si>
+  <si>
+    <t>TestDescription_124</t>
+  </si>
+  <si>
+    <t>TestDescription_125</t>
+  </si>
+  <si>
+    <t>TestDescription_126</t>
+  </si>
+  <si>
+    <t>TestDescription_127</t>
+  </si>
+  <si>
+    <t>TestDescription_128</t>
+  </si>
+  <si>
+    <t>TestDescription_129</t>
+  </si>
+  <si>
+    <t>TestDescription_130</t>
+  </si>
+  <si>
+    <t>TestDescription_131</t>
+  </si>
+  <si>
+    <t>TestDescription_132</t>
+  </si>
+  <si>
+    <t>TestDescription_133</t>
+  </si>
+  <si>
+    <t>TestDescription_134</t>
+  </si>
+  <si>
+    <t>TestDescription_135</t>
+  </si>
+  <si>
+    <t>TestDescription_136</t>
+  </si>
+  <si>
+    <t>TestDescription_137</t>
+  </si>
+  <si>
+    <t>TestDescription_138</t>
+  </si>
+  <si>
+    <t>TestDescription_139</t>
+  </si>
+  <si>
+    <t>TestDescription_140</t>
+  </si>
+  <si>
+    <t>TestDescription_141</t>
+  </si>
+  <si>
+    <t>TestDescription_142</t>
+  </si>
+  <si>
+    <t>TestDescription_143</t>
+  </si>
+  <si>
+    <t>TestDescription_144</t>
+  </si>
+  <si>
+    <t>TestDescription_145</t>
+  </si>
+  <si>
+    <t>TestDescription_146</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Groups=Smoke,Ec,PWV</t>
   </si>
 </sst>
 </file>
@@ -1146,12 +1359,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -1218,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1244,6 +1475,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1596,7 +1838,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1668,7 +1910,7 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{22324165-6189-4DFD-A84C-654307E2A730}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{8833356A-A9AA-4295-81FA-CD936ACCC769}"/>
-    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{31B31E5C-5764-4F45-B024-433B9BA006F3}"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{5512ADE1-8E2D-4726-8F27-AB75A64343ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1677,33 +1919,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1720,8 +1964,8 @@
       <c r="D2" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>361</v>
+      <c r="E2" s="15" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3361,6 +3605,566 @@
       </c>
       <c r="D119" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D120" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D121" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D122" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D123" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D124" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D125" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D126" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D127" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D128" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D129" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D130" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D131" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D132" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D133" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D134" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D135" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <v>2026</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D136" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
+        <v>2027</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D137" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="12">
+        <v>2028</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D138" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
+        <v>2029</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D139" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
+        <v>2030</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D140" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="11">
+        <v>3031</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="11">
+        <v>2032</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D142" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="11">
+        <v>2033</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D143" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="11">
+        <v>2034</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D144" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
+        <v>2035</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D145" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="11">
+        <v>2036</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D146" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
+        <v>2037</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D147" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <v>2038</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D148" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2694B1FD-FC30-4B86-A2DE-DEF753E934B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B37AFE7-2FB0-476E-B6EC-FD843A4AD692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
     <t>141</t>
   </si>
   <si>
-    <t>Groups=Smoke,Ec,PWV</t>
+    <t>TestCaseNumber=3007</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1369,12 +1369,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1481,11 +1475,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1921,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -1934,20 +1927,20 @@
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1964,7 +1957,7 @@
       <c r="D2" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>432</v>
       </c>
     </row>
@@ -1981,7 +1974,7 @@
       <c r="D3" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B37AFE7-2FB0-476E-B6EC-FD843A4AD692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5599653-FEAD-45AD-8153-FC68BFA822E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
     <t>141</t>
   </si>
   <si>
-    <t>TestCaseNumber=3007</t>
+    <t>Groups=Smoke,Ec,TPI</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1903,7 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{22324165-6189-4DFD-A84C-654307E2A730}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{8833356A-A9AA-4295-81FA-CD936ACCC769}"/>
-    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{5512ADE1-8E2D-4726-8F27-AB75A64343ED}"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{DF20FF0F-4380-4897-B7E9-7A06462DE2C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1916,7 +1916,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1957,7 @@
       <c r="D2" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>432</v>
       </c>
     </row>
@@ -1989,6 +1989,7 @@
       <c r="D4" t="s">
         <v>235</v>
       </c>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5599653-FEAD-45AD-8153-FC68BFA822E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A8155-0528-4120-954F-DCC30C76DDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="434">
   <si>
     <t>Properties</t>
   </si>
@@ -1330,6 +1330,9 @@
   </si>
   <si>
     <t>Groups=Smoke,Ec,TPI</t>
+  </si>
+  <si>
+    <t>TestCaseNumber=1906</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1919,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,8 +1960,8 @@
       <c r="D2" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>432</v>
+      <c r="E2" s="14" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1989,7 +1992,9 @@
       <c r="D4" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A8155-0528-4120-954F-DCC30C76DDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3107D-25AF-4C60-ABB2-5E27F10B7A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="435">
   <si>
     <t>Properties</t>
   </si>
@@ -1333,6 +1333,9 @@
   </si>
   <si>
     <t>TestCaseNumber=1906</t>
+  </si>
+  <si>
+    <t>kj</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3107D-25AF-4C60-ABB2-5E27F10B7A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{87CCB195-411B-4F57-A043-A146108CEAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="3885" windowWidth="15360" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="434">
   <si>
     <t>Properties</t>
   </si>
@@ -1330,9 +1326,6 @@
   </si>
   <si>
     <t>Groups=Smoke,Ec,TPI</t>
-  </si>
-  <si>
-    <t>TestCaseNumber=1906</t>
   </si>
   <si>
     <t>kj</t>
@@ -1922,7 +1915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,8 +1956,8 @@
       <c r="D2" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>433</v>
+      <c r="E2" s="13" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -3,31 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{87CCB195-411B-4F57-A043-A146108CEAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F7D31E-915A-420E-AD84-1E82D7C04D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3885" windowWidth="15360" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="436">
   <si>
     <t>Properties</t>
   </si>
@@ -1329,6 +1323,12 @@
   </si>
   <si>
     <t>kj</t>
+  </si>
+  <si>
+    <t>Smoke1st10</t>
+  </si>
+  <si>
+    <t>Groups=Smoke1st10</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1902,7 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{22324165-6189-4DFD-A84C-654307E2A730}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{8833356A-A9AA-4295-81FA-CD936ACCC769}"/>
-    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{DF20FF0F-4380-4897-B7E9-7A06462DE2C4}"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{D6C5219B-0C74-4B39-84CF-460662F2B0B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1915,7 +1915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1923,7 @@
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>235</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2045,7 +2045,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2171,7 +2171,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F7D31E-915A-420E-AD84-1E82D7C04D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF295A9-716A-4C3E-A017-8143BC3D265D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,22 @@
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="434">
   <si>
     <t>Properties</t>
   </si>
@@ -728,9 +738,6 @@
     <t>Nri</t>
   </si>
   <si>
-    <t>kjh</t>
-  </si>
-  <si>
     <t>Ec</t>
   </si>
   <si>
@@ -1322,13 +1329,10 @@
     <t>Groups=Smoke,Ec,TPI</t>
   </si>
   <si>
-    <t>kj</t>
-  </si>
-  <si>
-    <t>Smoke1st10</t>
-  </si>
-  <si>
-    <t>Groups=Smoke1st10</t>
+    <t>Sanity</t>
+  </si>
+  <si>
+    <t>TestCaseNumber=1950,1952</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1374,6 +1378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,13 +1438,17 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1442,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1459,23 +1473,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1873,8 +1887,8 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
+      <c r="B5" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
@@ -1888,12 +1902,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1916,7 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{22324165-6189-4DFD-A84C-654307E2A730}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{8833356A-A9AA-4295-81FA-CD936ACCC769}"/>
-    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{D6C5219B-0C74-4B39-84CF-460662F2B0B8}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{0EFB50D6-61D1-4CF6-9250-0E2760BB3572}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1915,7 +1929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,20 +1940,20 @@
     <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1948,16 +1962,14 @@
         <v>101</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>435</v>
+      <c r="D2" s="10"/>
+      <c r="E2" s="16" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1965,14 +1977,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>235</v>
-      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,16 +1990,14 @@
         <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>432</v>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,2170 +2005,2319 @@
         <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>235</v>
-      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>235</v>
-      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1898</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>1898</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1899</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1900</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>1899</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>1900</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>434</v>
-      </c>
+      <c r="D10" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>434</v>
-      </c>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
-        <v>434</v>
-      </c>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
-        <v>434</v>
-      </c>
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>434</v>
-      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>434</v>
-      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>1911</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>1911</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C37" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C44" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C46" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C50" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C52" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C53" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C54" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C55" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C56" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C57" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C58" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C59" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C63" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C64" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C65" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C66" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C67" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C68" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C70" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C71" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C74" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C77" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C78" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C80" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C81" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C82" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C83" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C84" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D84" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C85" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D85" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C86" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D86" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C87" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D87" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C88" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D88" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D89" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C90" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D90" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C91" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D91" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C92" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D92" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D93" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>181</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C94" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D94" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C95" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D95" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C96" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D96" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C97" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D97" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C98" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D98" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C99" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D99" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D100" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C101" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D101" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C102" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D102" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C103" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D103" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D104" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B105" s="9" t="s">
+      <c r="C105" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D105" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B106" s="9" t="s">
+      <c r="C106" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D106" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B107" s="9" t="s">
+      <c r="C107" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D107" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B108" s="9" t="s">
+      <c r="C108" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D108" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" s="9" t="s">
+      <c r="C109" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="9" t="s">
+      <c r="C110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B111" s="9" t="s">
+      <c r="C111" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B112" s="9" t="s">
+      <c r="C112" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B113" s="9" t="s">
+      <c r="C113" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D113" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B114" s="9" t="s">
+      <c r="C114" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B115" s="9" t="s">
+      <c r="C115" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D115" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B116" s="9" t="s">
+      <c r="C116" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D116" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B117" s="9" t="s">
+      <c r="C117" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D117" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B118" s="9" t="s">
+      <c r="C118" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D118" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="C119" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D119" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>2010</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D120" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>2011</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D121" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>2012</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D122" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E122" s="10"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>2013</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D123" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E123" s="10"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>2014</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D124" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>2015</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D125" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>2016</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D126" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>2017</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D127" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>2018</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D128" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>2019</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D129" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E129" s="10"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>2020</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D130" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E130" s="10"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>2021</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D131" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>2022</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D132" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>2023</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D133" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E133" s="10"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>2024</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D134" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E134" s="10"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>2025</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D135" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>2026</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D136" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>2027</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D137" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>2028</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D138" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>2029</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D139" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>2030</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D140" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>3031</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D141" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>2032</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D142" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>2033</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D143" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E143" s="10"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>2034</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D144" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E144" s="10"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>2035</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D145" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E145" s="10"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>2036</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D146" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>2037</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D147" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E147" s="10"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>2038</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D148" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="10"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="B150" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="B151" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E151" s="10"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="B152" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E152" s="10"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="B153" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="D153" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E153" s="10"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="B154" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C154" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="D154" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E154" s="10"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="B155" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C155" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="D155" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E155" s="10"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="B156" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="D156" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="B157" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C157" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="D157" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E157" s="10"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="B158" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="D158" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E158" s="10"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="B159" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="D159" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E159" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25F3C69-8140-4051-93BF-53DB3867C3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553E0680-C6E0-4DF7-896D-48E79FD6A7B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1362,7 +1362,7 @@
     <t>Health and Policy Page validations</t>
   </si>
   <si>
-    <t>Groups=Sanity</t>
+    <t>Groups=Smoke,Ec</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1943,7 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{22324165-6189-4DFD-A84C-654307E2A730}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{8833356A-A9AA-4295-81FA-CD936ACCC769}"/>
-    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{E648A4F9-514B-4662-9812-FF6D561E2083}"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{78D729D7-8C96-4BBA-AD0C-C19BDEAB5521}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1956,7 +1956,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>443</v>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
         <v>166</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="E82" s="10"/>
     </row>
@@ -3203,7 +3203,7 @@
         <v>167</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="E83" s="10"/>
     </row>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2176C-694E-4FD9-BE93-3E0B8A366848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7DAF8-1737-4794-9328-EF79B3302F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1434,7 +1434,7 @@
     <t>multiClick</t>
   </si>
   <si>
-    <t>TestCaseNumber=2010</t>
+    <t>TestCaseNumber=2009</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1951,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2029,7 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{22324165-6189-4DFD-A84C-654307E2A730}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{8833356A-A9AA-4295-81FA-CD936ACCC769}"/>
-    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{2CE3E497-F9AE-434D-B5CE-66C8789EE8A6}"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{C8A2F281-0B6E-4DB7-AA3E-08D90C480477}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7DAF8-1737-4794-9328-EF79B3302F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0244770E-925D-4A0D-80A1-A216932ABB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="587">
   <si>
     <t>Properties</t>
   </si>
@@ -1428,20 +1428,377 @@
     <t>7000</t>
   </si>
   <si>
-    <t>multipleClicks</t>
-  </si>
-  <si>
-    <t>multiClick</t>
-  </si>
-  <si>
-    <t>TestCaseNumber=2009</t>
+    <t>ThirdPartyNavigation01</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation02</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation03</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation04</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation05</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation06</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation07</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation08</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation09</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation10</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation11</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation12</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation13</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation14</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation15</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation16</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation17</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation18</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation19</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation20</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation21</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation22</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation23</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation24</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation25</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation26</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation27</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation28</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation29</t>
+  </si>
+  <si>
+    <t>ThirdPartyNavigation30</t>
+  </si>
+  <si>
+    <t>TPN</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>https://insurance.kotak.com/OnlineTermInsurance/</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>aggregator</t>
+  </si>
+  <si>
+    <t>nri</t>
+  </si>
+  <si>
+    <t>uate</t>
+  </si>
+  <si>
+    <t>BackAndForthTime</t>
+  </si>
+  <si>
+    <t>BAFT</t>
+  </si>
+  <si>
+    <t>7001</t>
+  </si>
+  <si>
+    <t>7002</t>
+  </si>
+  <si>
+    <t>7003</t>
+  </si>
+  <si>
+    <t>7004</t>
+  </si>
+  <si>
+    <t>7005</t>
+  </si>
+  <si>
+    <t>7006</t>
+  </si>
+  <si>
+    <t>7007</t>
+  </si>
+  <si>
+    <t>7008</t>
+  </si>
+  <si>
+    <t>7009</t>
+  </si>
+  <si>
+    <t>7010</t>
+  </si>
+  <si>
+    <t>7011</t>
+  </si>
+  <si>
+    <t>7012</t>
+  </si>
+  <si>
+    <t>7013</t>
+  </si>
+  <si>
+    <t>7014</t>
+  </si>
+  <si>
+    <t>7015</t>
+  </si>
+  <si>
+    <t>7016</t>
+  </si>
+  <si>
+    <t>7017</t>
+  </si>
+  <si>
+    <t>7018</t>
+  </si>
+  <si>
+    <t>7019</t>
+  </si>
+  <si>
+    <t>7020</t>
+  </si>
+  <si>
+    <t>7021</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>7023</t>
+  </si>
+  <si>
+    <t>7024</t>
+  </si>
+  <si>
+    <t>7025</t>
+  </si>
+  <si>
+    <t>7026</t>
+  </si>
+  <si>
+    <t>7027</t>
+  </si>
+  <si>
+    <t>7028</t>
+  </si>
+  <si>
+    <t>7029</t>
+  </si>
+  <si>
+    <t>7030</t>
+  </si>
+  <si>
+    <t>7031</t>
+  </si>
+  <si>
+    <t>7032</t>
+  </si>
+  <si>
+    <t>7033</t>
+  </si>
+  <si>
+    <t>7034</t>
+  </si>
+  <si>
+    <t>7035</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>7037</t>
+  </si>
+  <si>
+    <t>7038</t>
+  </si>
+  <si>
+    <t>7039</t>
+  </si>
+  <si>
+    <t>7040</t>
+  </si>
+  <si>
+    <t>7041</t>
+  </si>
+  <si>
+    <t>7042</t>
+  </si>
+  <si>
+    <t>7043</t>
+  </si>
+  <si>
+    <t>7044</t>
+  </si>
+  <si>
+    <t>7045</t>
+  </si>
+  <si>
+    <t>7046</t>
+  </si>
+  <si>
+    <t>7047</t>
+  </si>
+  <si>
+    <t>7048</t>
+  </si>
+  <si>
+    <t>7049</t>
+  </si>
+  <si>
+    <t>proposal</t>
+  </si>
+  <si>
+    <t>aasASAF</t>
+  </si>
+  <si>
+    <t>TestCaseNumber=1912,1909,1920,1898,1918,1919,1906,1903,1902,1901,1900,1922</t>
+  </si>
+  <si>
+    <t>TestCaseNumber=1910</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1459,6 +1816,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1490,7 +1854,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1553,23 +1917,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1602,7 +1955,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1948,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +2318,7 @@
     <col min="3" max="3" width="63.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1977,7 +2334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1996,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2006,21 +2363,41 @@
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
         <v>317</v>
+      </c>
+      <c r="D8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D9" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -2029,16 +2406,17 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{22324165-6189-4DFD-A84C-654307E2A730}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{8833356A-A9AA-4295-81FA-CD936ACCC769}"/>
-    <hyperlink ref="B5" r:id="rId5" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{C8A2F281-0B6E-4DB7-AA3E-08D90C480477}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{1464D6CE-DDBE-41BA-A259-2F482BAD5DE8}"/>
+    <hyperlink ref="B5" r:id="rId6" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{8CC59CDC-6C5F-4CBB-90F7-AE06489577BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2051,7 +2429,7 @@
     <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2085,7 +2463,7 @@
         <v>437</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>467</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,7 +2511,9 @@
       <c r="D5" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="13" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2296,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -2311,7 +2691,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="E17" s="10"/>
     </row>
@@ -2326,7 +2706,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -3406,7 +3786,7 @@
         <v>166</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="E90" s="10"/>
     </row>
@@ -3421,7 +3801,7 @@
         <v>167</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="E91" s="10"/>
     </row>
@@ -4401,183 +4781,1858 @@
       <c r="E156" s="10"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="11">
+        <v>2039</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="17">
+        <v>2040</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="17">
+        <v>2041</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="17">
+        <v>2042</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="17">
+        <v>2043</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="17">
+        <v>2044</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="17">
+        <v>2045</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="17">
+        <v>2046</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="17">
+        <v>2047</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="17">
+        <v>2048</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="17">
+        <v>2049</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="17">
+        <v>2050</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="17">
+        <v>2051</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="17">
+        <v>2052</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="17">
+        <v>2053</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="17">
+        <v>2054</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="17">
+        <v>2055</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="17">
+        <v>2056</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="17">
+        <v>2057</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="17">
+        <v>2058</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="17">
+        <v>2059</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="17">
+        <v>2060</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="17">
+        <v>2061</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="17">
+        <v>2062</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="17">
+        <v>2063</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="17">
+        <v>2064</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="17">
+        <v>2065</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="17">
+        <v>2066</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="17">
+        <v>2067</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="17">
+        <v>2068</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B187" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C187" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D187" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E157" s="10"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B188" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C188" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D188" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E158" s="10"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B189" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C189" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D189" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E159" s="10"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B190" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C190" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D190" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E160" s="10"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B191" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C191" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D191" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E161" s="10"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B192" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C192" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D192" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E162" s="10"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B193" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C193" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D193" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E163" s="10"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B194" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C194" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D194" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E164" s="10"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B195" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C195" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D195" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E165" s="10"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B196" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C196" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D196" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E166" s="10"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="9" t="s">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B197" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C197" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D197" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E167" s="10"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="B198" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C198" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D168" s="16" t="s">
-        <v>466</v>
-      </c>
+      <c r="D198" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D214" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D216" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D224" s="18"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D225" s="18"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D226" s="18"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D227" s="18"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D228" s="18"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D229" s="18"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D230" s="18"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D231" s="18"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D232" s="18"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D233" s="18"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D234" s="18"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D235" s="18"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D236" s="18"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D237" s="18"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D238" s="18"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D239" s="18"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D240" s="18"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D241" s="18"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D242" s="18"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D243" s="18"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D244" s="18"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D245" s="18"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D246" s="18"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D247" s="18"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D248" s="9"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D258" s="9"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D264" s="9"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D265" s="9"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D266" s="9"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D267" s="9"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D268" s="9"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D269" s="9"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D270" s="9"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D271" s="9"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D272" s="9"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D273" s="9"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D274" s="9"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D275" s="9"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D276" s="9"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D277" s="9"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D278" s="9"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D279" s="9"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D280" s="9"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D281" s="9"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D282" s="9"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D283" s="9"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D284" s="9"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D285" s="9"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D286" s="9"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D287" s="9"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D288" s="9"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D289" s="9"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D290" s="9"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D291" s="9"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D292" s="9"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D293" s="9"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D294" s="9"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D295" s="9"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D296" s="9"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D297" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0244770E-925D-4A0D-80A1-A216932ABB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08F6CEC-7855-432A-9844-E0F7C09398BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1791,7 +1791,7 @@
     <t>TestCaseNumber=1912,1909,1920,1898,1918,1919,1906,1903,1902,1901,1900,1922</t>
   </si>
   <si>
-    <t>TestCaseNumber=1910</t>
+    <t>Groups=Nri</t>
   </si>
 </sst>
 </file>
@@ -2419,8 +2419,8 @@
   <dimension ref="A1:E297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,7 +2462,7 @@
       <c r="D2" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>586</v>
       </c>
     </row>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08F6CEC-7855-432A-9844-E0F7C09398BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AF156-ECE5-4AD9-83C8-559055875EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="607">
   <si>
     <t>Properties</t>
   </si>
@@ -1788,10 +1788,70 @@
     <t>aasASAF</t>
   </si>
   <si>
-    <t>TestCaseNumber=1912,1909,1920,1898,1918,1919,1906,1903,1902,1901,1900,1922</t>
-  </si>
-  <si>
-    <t>Groups=Nri</t>
+    <t>5012</t>
+  </si>
+  <si>
+    <t>5013</t>
+  </si>
+  <si>
+    <t>5014</t>
+  </si>
+  <si>
+    <t>5015</t>
+  </si>
+  <si>
+    <t>5016</t>
+  </si>
+  <si>
+    <t>5017</t>
+  </si>
+  <si>
+    <t>5018</t>
+  </si>
+  <si>
+    <t>5019</t>
+  </si>
+  <si>
+    <t>5020</t>
+  </si>
+  <si>
+    <t>Sprint4</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_01</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_02</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_03</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_04</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_05</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_06</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_07</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_08</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_09</t>
+  </si>
+  <si>
+    <t>Sprint4_Tc_10</t>
+  </si>
+  <si>
+    <t>5021</t>
+  </si>
+  <si>
+    <t>TestCaseNumber=5013</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1960,6 +2020,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2416,11 +2479,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E297"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,8 +2525,8 @@
       <c r="D2" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>586</v>
+      <c r="E2" s="13" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,9 +2574,7 @@
       <c r="D5" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>585</v>
-      </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -6633,6 +6694,146 @@
         <v>141</v>
       </c>
       <c r="D297" s="9"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/resources/test_data/TestRunner_KLI.xlsx
+++ b/resources/test_data/TestRunner_KLI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\CodeLessFramework\resources\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravikumar\git\CodeLessFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AF156-ECE5-4AD9-83C8-559055875EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A020A370-C91E-49B2-A2F5-38A679DE3876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="620">
   <si>
     <t>Properties</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>RunInParallel</t>
   </si>
   <si>
@@ -1626,9 +1624,6 @@
     <t>nri</t>
   </si>
   <si>
-    <t>uate</t>
-  </si>
-  <si>
     <t>BackAndForthTime</t>
   </si>
   <si>
@@ -1852,6 +1847,51 @@
   </si>
   <si>
     <t>TestCaseNumber=5013</t>
+  </si>
+  <si>
+    <t>InternetExplorer</t>
+  </si>
+  <si>
+    <t>http://kliappsitsvr/Ifoundry_Migrate_4.8.4_new/iFoundry.aspx</t>
+  </si>
+  <si>
+    <t>iFoundry</t>
+  </si>
+  <si>
+    <t>11112</t>
+  </si>
+  <si>
+    <t>Request Creation</t>
+  </si>
+  <si>
+    <t>Response retrieval</t>
+  </si>
+  <si>
+    <t>4.8 hit Ifoundry</t>
+  </si>
+  <si>
+    <t>4.9 hit Ifoundry</t>
+  </si>
+  <si>
+    <t>4.8 Format Response</t>
+  </si>
+  <si>
+    <t>Suneethi</t>
+  </si>
+  <si>
+    <t>1 Man power</t>
+  </si>
+  <si>
+    <t>200 Scenarios Per day</t>
+  </si>
+  <si>
+    <t>Non Group Plans</t>
+  </si>
+  <si>
+    <t>100*30</t>
+  </si>
+  <si>
+    <t>UAT</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1928,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1910,6 +1950,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1982,7 +2028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2025,6 +2071,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2368,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,6 +2429,7 @@
     <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,73 +2445,130 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" t="s">
         <v>526</v>
       </c>
-      <c r="D9" t="s">
-        <v>527</v>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>48000</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="C18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C19" t="s">
+        <v>613</v>
+      </c>
+      <c r="D19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C24" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C26" t="s">
+        <v>618</v>
+      </c>
+      <c r="D26">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2578,7 @@
     <hyperlink ref="C6" r:id="rId3" xr:uid="{22324165-6189-4DFD-A84C-654307E2A730}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{8833356A-A9AA-4295-81FA-CD936ACCC769}"/>
     <hyperlink ref="C9" r:id="rId5" xr:uid="{1464D6CE-DDBE-41BA-A259-2F482BAD5DE8}"/>
-    <hyperlink ref="B5" r:id="rId6" tooltip="https://uateinsurance.mykotaklife.com/einsurance" xr:uid="{8CC59CDC-6C5F-4CBB-90F7-AE06489577BF}"/>
+    <hyperlink ref="B5" r:id="rId6" display="www.google.com" xr:uid="{BD8B037C-7545-4C45-97B6-176E9F9EB8B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -2479,11 +2587,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:F308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,251 +2601,255 @@
     <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="D2" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>463</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1898</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -2746,13 +2858,13 @@
         <v>1899</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="10"/>
     </row>
@@ -2761,163 +2873,163 @@
         <v>1900</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -2926,1483 +3038,1483 @@
         <v>1911</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E80" s="10"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E81" s="10"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E82" s="10"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E84" s="10"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E86" s="10"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E87" s="10"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E88" s="10"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E89" s="10"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E90" s="10"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E91" s="10"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="D92" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="D93" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E93" s="10"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E94" s="10"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E95" s="10"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E96" s="10"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E97" s="10"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E98" s="10"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E99" s="10"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E100" s="10"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E101" s="10"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E102" s="10"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E104" s="10"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E105" s="10"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E107" s="10"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E108" s="10"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E109" s="10"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E110" s="10"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E111" s="10"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E112" s="10"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E117" s="10"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E118" s="10"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E119" s="10"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E120" s="10"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E122" s="10"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E123" s="10"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E124" s="10"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E125" s="10"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E126" s="10"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C127" s="9" t="s">
+      <c r="D127" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="E127" s="10"/>
     </row>
@@ -4411,13 +4523,13 @@
         <v>2010</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E128" s="10"/>
     </row>
@@ -4426,13 +4538,13 @@
         <v>2011</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E129" s="10"/>
     </row>
@@ -4441,13 +4553,13 @@
         <v>2012</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E130" s="10"/>
     </row>
@@ -4456,13 +4568,13 @@
         <v>2013</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E131" s="10"/>
     </row>
@@ -4471,13 +4583,13 @@
         <v>2014</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E132" s="10"/>
     </row>
@@ -4486,13 +4598,13 @@
         <v>2015</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E133" s="10"/>
     </row>
@@ -4501,13 +4613,13 @@
         <v>2016</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E134" s="10"/>
     </row>
@@ -4516,13 +4628,13 @@
         <v>2017</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E135" s="10"/>
     </row>
@@ -4531,13 +4643,13 @@
         <v>2018</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E136" s="10"/>
     </row>
@@ -4546,13 +4658,13 @@
         <v>2019</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E137" s="10"/>
     </row>
@@ -4561,13 +4673,13 @@
         <v>2020</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E138" s="10"/>
     </row>
@@ -4576,13 +4688,13 @@
         <v>2021</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E139" s="10"/>
     </row>
@@ -4591,13 +4703,13 @@
         <v>2022</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E140" s="10"/>
     </row>
@@ -4606,13 +4718,13 @@
         <v>2023</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E141" s="10"/>
     </row>
@@ -4621,13 +4733,13 @@
         <v>2024</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E142" s="10"/>
     </row>
@@ -4636,13 +4748,13 @@
         <v>2025</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E143" s="10"/>
     </row>
@@ -4651,13 +4763,13 @@
         <v>2026</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E144" s="10"/>
     </row>
@@ -4666,13 +4778,13 @@
         <v>2027</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E145" s="10"/>
     </row>
@@ -4681,13 +4793,13 @@
         <v>2028</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E146" s="10"/>
     </row>
@@ -4696,13 +4808,13 @@
         <v>2029</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E147" s="10"/>
     </row>
@@ -4711,13 +4823,13 @@
         <v>2030</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E148" s="10"/>
     </row>
@@ -4726,13 +4838,13 @@
         <v>3031</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E149" s="10"/>
     </row>
@@ -4741,13 +4853,13 @@
         <v>2032</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E150" s="10"/>
     </row>
@@ -4756,13 +4868,13 @@
         <v>2033</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E151" s="10"/>
     </row>
@@ -4771,13 +4883,13 @@
         <v>2034</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E152" s="10"/>
     </row>
@@ -4786,13 +4898,13 @@
         <v>2035</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E153" s="10"/>
     </row>
@@ -4801,13 +4913,13 @@
         <v>2036</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E154" s="10"/>
     </row>
@@ -4816,13 +4928,13 @@
         <v>2037</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E155" s="10"/>
     </row>
@@ -4831,13 +4943,13 @@
         <v>2038</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E156" s="10"/>
     </row>
@@ -4846,13 +4958,13 @@
         <v>2039</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4860,13 +4972,13 @@
         <v>2040</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4874,13 +4986,13 @@
         <v>2041</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4888,13 +5000,13 @@
         <v>2042</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4902,13 +5014,13 @@
         <v>2043</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,13 +5028,13 @@
         <v>2044</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,13 +5042,13 @@
         <v>2045</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4944,13 +5056,13 @@
         <v>2046</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4958,13 +5070,13 @@
         <v>2047</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4972,13 +5084,13 @@
         <v>2048</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,13 +5098,13 @@
         <v>2049</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,13 +5112,13 @@
         <v>2050</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,13 +5126,13 @@
         <v>2051</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5028,13 +5140,13 @@
         <v>2052</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5042,13 +5154,13 @@
         <v>2053</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,13 +5168,13 @@
         <v>2054</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,13 +5182,13 @@
         <v>2055</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,13 +5196,13 @@
         <v>2056</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,13 +5210,13 @@
         <v>2057</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5112,13 +5224,13 @@
         <v>2058</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5126,13 +5238,13 @@
         <v>2059</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5140,13 +5252,13 @@
         <v>2060</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,13 +5266,13 @@
         <v>2061</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5168,13 +5280,13 @@
         <v>2062</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5182,13 +5294,13 @@
         <v>2063</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5196,13 +5308,13 @@
         <v>2064</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,13 +5322,13 @@
         <v>2065</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,13 +5336,13 @@
         <v>2066</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5238,13 +5350,13 @@
         <v>2067</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5252,1587 +5364,1601 @@
         <v>2068</v>
       </c>
       <c r="B186" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D186" s="16" t="s">
         <v>494</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C187" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C187" s="9" t="s">
+      <c r="D187" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D201" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D224" s="18"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D225" s="18"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D226" s="18"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D227" s="18"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D228" s="18"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D229" s="18"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D230" s="18"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D231" s="18"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D232" s="18"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D233" s="18"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D234" s="18"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D235" s="18"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D236" s="18"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D237" s="18"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D238" s="18"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D239" s="18"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D240" s="18"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D241" s="18"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D242" s="18"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D243" s="18"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D244" s="18"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D245" s="18"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D246" s="18"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D247" s="18"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D248" s="9"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D258" s="9"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D264" s="9"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D265" s="9"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D266" s="9"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D267" s="9"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D268" s="9"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D269" s="9"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D270" s="9"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D271" s="9"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D272" s="9"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D273" s="9"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D274" s="9"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D275" s="9"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D276" s="9"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D277" s="9"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D278" s="9"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D279" s="9"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D280" s="9"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D281" s="9"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D282" s="9"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D283" s="9"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D284" s="9"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D285" s="9"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D286" s="9"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D287" s="9"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D288" s="9"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D289" s="9"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D290" s="9"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D291" s="9"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D292" s="9"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D293" s="9"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D294" s="9"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D295" s="9"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D296" s="9"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D297" s="9"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D305" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
